--- a/dist/AppGestor/_internal/Plantillas/Autorizaciones.xlsx
+++ b/dist/AppGestor/_internal/Plantillas/Autorizaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maestra Flor\Gestor-Autorizaciones y Pagos\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3EFBA6-6418-4C11-8CEC-DF5E1A420507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3830355-8A5F-478F-B37B-677D1FF080C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="3150" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSPA Canrig" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <r>
       <rPr>
@@ -173,13 +173,17 @@
   <si>
     <t xml:space="preserve">Nombre: </t>
   </si>
+  <si>
+    <t>Cotización:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -236,14 +240,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -293,6 +289,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -320,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -473,11 +477,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -514,231 +542,237 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,15 +1106,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="81" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37:H38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="95" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
@@ -1089,40 +1123,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="65" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="37" t="s">
         <v>26</v>
       </c>
@@ -1158,10 +1192,10 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="66"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1175,16 +1209,16 @@
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -1217,47 +1251,47 @@
       <c r="A12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="1"/>
       <c r="F12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="1"/>
       <c r="F13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="58" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
     </row>
@@ -1271,15 +1305,15 @@
       <c r="C16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="s">
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="51"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -1287,11 +1321,11 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="55"/>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
@@ -1299,11 +1333,11 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="53"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="19" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -1311,11 +1345,11 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="53"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
@@ -1323,11 +1357,11 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="53"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
@@ -1335,11 +1369,11 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="53"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -1347,11 +1381,11 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="53"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -1359,11 +1393,11 @@
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="53"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -1371,11 +1405,11 @@
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="53"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -1383,11 +1417,11 @@
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="53"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -1395,11 +1429,11 @@
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="53"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:8" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -1407,11 +1441,11 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="46"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
@@ -1419,9 +1453,9 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="11"/>
       <c r="H28" s="10"/>
     </row>
@@ -1431,69 +1465,71 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="46"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
     </row>
     <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="59"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
+      <c r="A31" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="65"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
     </row>
     <row r="35" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
@@ -1506,17 +1542,17 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="G36" s="88" t="s">
+      <c r="G36" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="88"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -1524,872 +1560,872 @@
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="1"/>
-      <c r="G39" s="87" t="s">
+      <c r="G39" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="H39" s="87"/>
+      <c r="H39" s="90"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="1"/>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="H40" s="38"/>
+      <c r="H40" s="91"/>
     </row>
     <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="38"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="41"/>
-      <c r="C101" s="41"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="41"/>
-      <c r="C104" s="41"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="41"/>
-      <c r="C106" s="41"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="41"/>
-      <c r="C108" s="41"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="38"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="41"/>
-      <c r="C110" s="41"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="41"/>
-      <c r="C111" s="41"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="38"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="38"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="41"/>
-      <c r="C113" s="41"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="38"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="41"/>
-      <c r="C114" s="41"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="38"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="41"/>
-      <c r="C115" s="41"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="38"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="41"/>
-      <c r="C116" s="41"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="41"/>
-      <c r="C117" s="41"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="41"/>
-      <c r="C118" s="41"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="41"/>
-      <c r="C119" s="41"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="41"/>
-      <c r="C120" s="41"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="38"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="41"/>
-      <c r="C121" s="41"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="38"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="41"/>
-      <c r="C122" s="41"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="38"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="38"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="41"/>
-      <c r="C124" s="41"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="38"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="41"/>
-      <c r="C125" s="41"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="41"/>
-      <c r="C126" s="41"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="38"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="41"/>
-      <c r="C127" s="41"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="38"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="41"/>
-      <c r="C128" s="41"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="38"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="41"/>
-      <c r="C129" s="41"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="41"/>
-      <c r="C130" s="41"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="41"/>
-      <c r="C131" s="41"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="38"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="41"/>
-      <c r="C132" s="41"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="38"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="41"/>
-      <c r="C133" s="41"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="38"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="41"/>
-      <c r="C134" s="41"/>
+      <c r="B134" s="38"/>
+      <c r="C134" s="38"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="41"/>
-      <c r="C135" s="41"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="38"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="41"/>
-      <c r="C136" s="41"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="38"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="41"/>
-      <c r="C137" s="41"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="38"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="41"/>
-      <c r="C138" s="41"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="38"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="41"/>
-      <c r="C139" s="41"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="38"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="41"/>
-      <c r="C140" s="41"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="38"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="41"/>
-      <c r="C141" s="41"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="38"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="41"/>
-      <c r="C142" s="41"/>
+      <c r="B142" s="38"/>
+      <c r="C142" s="38"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="41"/>
-      <c r="C143" s="41"/>
+      <c r="B143" s="38"/>
+      <c r="C143" s="38"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="41"/>
-      <c r="C144" s="41"/>
+      <c r="B144" s="38"/>
+      <c r="C144" s="38"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="41"/>
-      <c r="C145" s="41"/>
+      <c r="B145" s="38"/>
+      <c r="C145" s="38"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="41"/>
-      <c r="C146" s="41"/>
+      <c r="B146" s="38"/>
+      <c r="C146" s="38"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="41"/>
-      <c r="C147" s="41"/>
+      <c r="B147" s="38"/>
+      <c r="C147" s="38"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="41"/>
-      <c r="C148" s="41"/>
+      <c r="B148" s="38"/>
+      <c r="C148" s="38"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="41"/>
-      <c r="C149" s="41"/>
+      <c r="B149" s="38"/>
+      <c r="C149" s="38"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="41"/>
-      <c r="C150" s="41"/>
+      <c r="B150" s="38"/>
+      <c r="C150" s="38"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="41"/>
-      <c r="C151" s="41"/>
+      <c r="B151" s="38"/>
+      <c r="C151" s="38"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="41"/>
-      <c r="C152" s="41"/>
+      <c r="B152" s="38"/>
+      <c r="C152" s="38"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="41"/>
-      <c r="C153" s="41"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="38"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="41"/>
-      <c r="C154" s="41"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="38"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="41"/>
-      <c r="C155" s="41"/>
+      <c r="B155" s="38"/>
+      <c r="C155" s="38"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="41"/>
-      <c r="C156" s="41"/>
+      <c r="B156" s="38"/>
+      <c r="C156" s="38"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="41"/>
-      <c r="C157" s="41"/>
+      <c r="B157" s="38"/>
+      <c r="C157" s="38"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="41"/>
-      <c r="C158" s="41"/>
+      <c r="B158" s="38"/>
+      <c r="C158" s="38"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="41"/>
-      <c r="C159" s="41"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="38"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="41"/>
-      <c r="C160" s="41"/>
+      <c r="B160" s="38"/>
+      <c r="C160" s="38"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="41"/>
-      <c r="C161" s="41"/>
+      <c r="B161" s="38"/>
+      <c r="C161" s="38"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="41"/>
-      <c r="C162" s="41"/>
+      <c r="B162" s="38"/>
+      <c r="C162" s="38"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="41"/>
-      <c r="C163" s="41"/>
+      <c r="B163" s="38"/>
+      <c r="C163" s="38"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="41"/>
-      <c r="C164" s="41"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="38"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="41"/>
-      <c r="C165" s="41"/>
+      <c r="B165" s="38"/>
+      <c r="C165" s="38"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="41"/>
-      <c r="C166" s="41"/>
+      <c r="B166" s="38"/>
+      <c r="C166" s="38"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="41"/>
-      <c r="C167" s="41"/>
+      <c r="B167" s="38"/>
+      <c r="C167" s="38"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="41"/>
-      <c r="C168" s="41"/>
+      <c r="B168" s="38"/>
+      <c r="C168" s="38"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="41"/>
-      <c r="C169" s="41"/>
+      <c r="B169" s="38"/>
+      <c r="C169" s="38"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="41"/>
-      <c r="C170" s="41"/>
+      <c r="B170" s="38"/>
+      <c r="C170" s="38"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="41"/>
-      <c r="C171" s="41"/>
+      <c r="B171" s="38"/>
+      <c r="C171" s="38"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="41"/>
-      <c r="C172" s="41"/>
+      <c r="B172" s="38"/>
+      <c r="C172" s="38"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="41"/>
-      <c r="C173" s="41"/>
+      <c r="B173" s="38"/>
+      <c r="C173" s="38"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="41"/>
-      <c r="C174" s="41"/>
+      <c r="B174" s="38"/>
+      <c r="C174" s="38"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="41"/>
-      <c r="C175" s="41"/>
+      <c r="B175" s="38"/>
+      <c r="C175" s="38"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="41"/>
-      <c r="C176" s="41"/>
+      <c r="B176" s="38"/>
+      <c r="C176" s="38"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="41"/>
-      <c r="C177" s="41"/>
+      <c r="B177" s="38"/>
+      <c r="C177" s="38"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="41"/>
-      <c r="C178" s="41"/>
+      <c r="B178" s="38"/>
+      <c r="C178" s="38"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="41"/>
-      <c r="C179" s="41"/>
+      <c r="B179" s="38"/>
+      <c r="C179" s="38"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="41"/>
-      <c r="C180" s="41"/>
+      <c r="B180" s="38"/>
+      <c r="C180" s="38"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="41"/>
-      <c r="C181" s="41"/>
+      <c r="B181" s="38"/>
+      <c r="C181" s="38"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="41"/>
-      <c r="C182" s="41"/>
+      <c r="B182" s="38"/>
+      <c r="C182" s="38"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="41"/>
-      <c r="C183" s="41"/>
+      <c r="B183" s="38"/>
+      <c r="C183" s="38"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="41"/>
-      <c r="C184" s="41"/>
+      <c r="B184" s="38"/>
+      <c r="C184" s="38"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="41"/>
-      <c r="C185" s="41"/>
+      <c r="B185" s="38"/>
+      <c r="C185" s="38"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="41"/>
-      <c r="C186" s="41"/>
+      <c r="B186" s="38"/>
+      <c r="C186" s="38"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="41"/>
-      <c r="C187" s="41"/>
+      <c r="B187" s="38"/>
+      <c r="C187" s="38"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="41"/>
-      <c r="C188" s="41"/>
+      <c r="B188" s="38"/>
+      <c r="C188" s="38"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="41"/>
-      <c r="C189" s="41"/>
+      <c r="B189" s="38"/>
+      <c r="C189" s="38"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="41"/>
-      <c r="C190" s="41"/>
+      <c r="B190" s="38"/>
+      <c r="C190" s="38"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="41"/>
-      <c r="C191" s="41"/>
+      <c r="B191" s="38"/>
+      <c r="C191" s="38"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="41"/>
-      <c r="C192" s="41"/>
+      <c r="B192" s="38"/>
+      <c r="C192" s="38"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="41"/>
-      <c r="C193" s="41"/>
+      <c r="B193" s="38"/>
+      <c r="C193" s="38"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="41"/>
-      <c r="C194" s="41"/>
+      <c r="B194" s="38"/>
+      <c r="C194" s="38"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="41"/>
-      <c r="C195" s="41"/>
+      <c r="B195" s="38"/>
+      <c r="C195" s="38"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="41"/>
-      <c r="C196" s="41"/>
+      <c r="B196" s="38"/>
+      <c r="C196" s="38"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="41"/>
-      <c r="C197" s="41"/>
+      <c r="B197" s="38"/>
+      <c r="C197" s="38"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="41"/>
-      <c r="C198" s="41"/>
+      <c r="B198" s="38"/>
+      <c r="C198" s="38"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="41"/>
-      <c r="C199" s="41"/>
+      <c r="B199" s="38"/>
+      <c r="C199" s="38"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="41"/>
-      <c r="C200" s="41"/>
+      <c r="B200" s="38"/>
+      <c r="C200" s="38"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201" s="41"/>
-      <c r="C201" s="41"/>
+      <c r="B201" s="38"/>
+      <c r="C201" s="38"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="41"/>
-      <c r="C202" s="41"/>
+      <c r="B202" s="38"/>
+      <c r="C202" s="38"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="41"/>
-      <c r="C203" s="41"/>
+      <c r="B203" s="38"/>
+      <c r="C203" s="38"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="41"/>
-      <c r="C204" s="41"/>
+      <c r="B204" s="38"/>
+      <c r="C204" s="38"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="41"/>
-      <c r="C205" s="41"/>
+      <c r="B205" s="38"/>
+      <c r="C205" s="38"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="41"/>
-      <c r="C206" s="41"/>
+      <c r="B206" s="38"/>
+      <c r="C206" s="38"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="41"/>
-      <c r="C207" s="41"/>
+      <c r="B207" s="38"/>
+      <c r="C207" s="38"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="41"/>
-      <c r="C208" s="41"/>
+      <c r="B208" s="38"/>
+      <c r="C208" s="38"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="41"/>
-      <c r="C209" s="41"/>
+      <c r="B209" s="38"/>
+      <c r="C209" s="38"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="41"/>
-      <c r="C210" s="41"/>
+      <c r="B210" s="38"/>
+      <c r="C210" s="38"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="41"/>
-      <c r="C211" s="41"/>
+      <c r="B211" s="38"/>
+      <c r="C211" s="38"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="41"/>
-      <c r="C212" s="41"/>
+      <c r="B212" s="38"/>
+      <c r="C212" s="38"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="41"/>
-      <c r="C213" s="41"/>
+      <c r="B213" s="38"/>
+      <c r="C213" s="38"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="41"/>
-      <c r="C214" s="41"/>
+      <c r="B214" s="38"/>
+      <c r="C214" s="38"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="41"/>
-      <c r="C215" s="41"/>
+      <c r="B215" s="38"/>
+      <c r="C215" s="38"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="41"/>
-      <c r="C216" s="41"/>
+      <c r="B216" s="38"/>
+      <c r="C216" s="38"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="41"/>
-      <c r="C217" s="41"/>
+      <c r="B217" s="38"/>
+      <c r="C217" s="38"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="41"/>
-      <c r="C218" s="41"/>
+      <c r="B218" s="38"/>
+      <c r="C218" s="38"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="41"/>
-      <c r="C219" s="41"/>
+      <c r="B219" s="38"/>
+      <c r="C219" s="38"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="41"/>
-      <c r="C220" s="41"/>
+      <c r="B220" s="38"/>
+      <c r="C220" s="38"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="41"/>
-      <c r="C221" s="41"/>
+      <c r="B221" s="38"/>
+      <c r="C221" s="38"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="41"/>
-      <c r="C222" s="41"/>
+      <c r="B222" s="38"/>
+      <c r="C222" s="38"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="41"/>
-      <c r="C223" s="41"/>
+      <c r="B223" s="38"/>
+      <c r="C223" s="38"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="41"/>
-      <c r="C224" s="41"/>
+      <c r="B224" s="38"/>
+      <c r="C224" s="38"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="41"/>
-      <c r="C225" s="41"/>
+      <c r="B225" s="38"/>
+      <c r="C225" s="38"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="41"/>
-      <c r="C226" s="41"/>
+      <c r="B226" s="38"/>
+      <c r="C226" s="38"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="41"/>
-      <c r="C227" s="41"/>
+      <c r="B227" s="38"/>
+      <c r="C227" s="38"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="41"/>
-      <c r="C228" s="41"/>
+      <c r="B228" s="38"/>
+      <c r="C228" s="38"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="41"/>
-      <c r="C229" s="41"/>
+      <c r="B229" s="38"/>
+      <c r="C229" s="38"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="41"/>
-      <c r="C230" s="41"/>
+      <c r="B230" s="38"/>
+      <c r="C230" s="38"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="41"/>
-      <c r="C231" s="41"/>
+      <c r="B231" s="38"/>
+      <c r="C231" s="38"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="41"/>
-      <c r="C232" s="41"/>
+      <c r="B232" s="38"/>
+      <c r="C232" s="38"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="41"/>
-      <c r="C233" s="41"/>
+      <c r="B233" s="38"/>
+      <c r="C233" s="38"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B234" s="41"/>
-      <c r="C234" s="41"/>
+      <c r="B234" s="38"/>
+      <c r="C234" s="38"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="41"/>
-      <c r="C235" s="41"/>
+      <c r="B235" s="38"/>
+      <c r="C235" s="38"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="41"/>
-      <c r="C236" s="41"/>
+      <c r="B236" s="38"/>
+      <c r="C236" s="38"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="41"/>
-      <c r="C237" s="41"/>
+      <c r="B237" s="38"/>
+      <c r="C237" s="38"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="41"/>
-      <c r="C238" s="41"/>
+      <c r="B238" s="38"/>
+      <c r="C238" s="38"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="41"/>
-      <c r="C239" s="41"/>
+      <c r="B239" s="38"/>
+      <c r="C239" s="38"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="41"/>
-      <c r="C240" s="41"/>
+      <c r="B240" s="38"/>
+      <c r="C240" s="38"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B241" s="41"/>
-      <c r="C241" s="41"/>
+      <c r="B241" s="38"/>
+      <c r="C241" s="38"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B242" s="41"/>
-      <c r="C242" s="41"/>
+      <c r="B242" s="38"/>
+      <c r="C242" s="38"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B243" s="41"/>
-      <c r="C243" s="41"/>
+      <c r="B243" s="38"/>
+      <c r="C243" s="38"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B244" s="41"/>
-      <c r="C244" s="41"/>
+      <c r="B244" s="38"/>
+      <c r="C244" s="38"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="41"/>
-      <c r="C245" s="41"/>
+      <c r="B245" s="38"/>
+      <c r="C245" s="38"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B246" s="41"/>
-      <c r="C246" s="41"/>
+      <c r="B246" s="38"/>
+      <c r="C246" s="38"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B247" s="41"/>
-      <c r="C247" s="41"/>
+      <c r="B247" s="38"/>
+      <c r="C247" s="38"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B248" s="41"/>
-      <c r="C248" s="41"/>
+      <c r="B248" s="38"/>
+      <c r="C248" s="38"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B249" s="41"/>
-      <c r="C249" s="41"/>
+      <c r="B249" s="38"/>
+      <c r="C249" s="38"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B250" s="41"/>
-      <c r="C250" s="41"/>
+      <c r="B250" s="38"/>
+      <c r="C250" s="38"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -2400,13 +2436,38 @@
     <protectedRange sqref="B19:B20" name="Rango1_5_1_1"/>
     <protectedRange sqref="C19:C20" name="Rango1_6_1_1"/>
   </protectedRanges>
-  <mergeCells count="51">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H38"/>
+  <mergeCells count="50">
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:H3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G24:H24"/>
@@ -2419,39 +2480,13 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:H3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="G40:H40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dist/AppGestor/_internal/Plantillas/Autorizaciones.xlsx
+++ b/dist/AppGestor/_internal/Plantillas/Autorizaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maestra Flor\Gestor-Autorizaciones y Pagos\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3830355-8A5F-478F-B37B-677D1FF080C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45986F97-6F7D-4AD7-B5AC-134AD7656D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="3150" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSPA Canrig" sheetId="1" r:id="rId1"/>
@@ -36,53 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Puesto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Gerente General </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Nombre: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dalia Guzmán Palomino</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Autoriza</t>
   </si>
@@ -175,6 +129,15 @@
   </si>
   <si>
     <t>Cotización:</t>
+  </si>
+  <si>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <t>Ing. Emilio de Valle</t>
+  </si>
+  <si>
+    <t>Responsable en Autorización</t>
   </si>
 </sst>
 </file>
@@ -505,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -636,143 +599,149 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="95" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,62 +1087,62 @@
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="A1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="30">
         <v>45505</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1192,10 +1161,10 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="75"/>
+      <c r="F6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="70"/>
       <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1209,16 +1178,16 @@
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
+      <c r="A8" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -1231,89 +1200,89 @@
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
+        <v>13</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="1"/>
       <c r="F12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+        <v>12</v>
+      </c>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="1"/>
       <c r="F13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="62"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="84"/>
+      <c r="D16" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -1321,11 +1290,11 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="55"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
@@ -1333,11 +1302,11 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="57"/>
     </row>
     <row r="19" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -1345,11 +1314,11 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
@@ -1357,11 +1326,11 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
@@ -1369,11 +1338,11 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="57"/>
     </row>
     <row r="22" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -1381,11 +1350,11 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="57"/>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -1393,11 +1362,11 @@
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="57"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -1405,11 +1374,11 @@
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="57"/>
     </row>
     <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -1417,11 +1386,11 @@
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="57"/>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -1429,11 +1398,11 @@
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="57"/>
     </row>
     <row r="27" spans="1:8" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -1441,11 +1410,11 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
@@ -1453,9 +1422,9 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="53"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="11"/>
       <c r="H28" s="10"/>
     </row>
@@ -1465,51 +1434,51 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="79"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="62"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="82"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="65"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="85"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="43"/>
       <c r="C33" s="44"/>
@@ -1520,16 +1489,16 @@
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
+      <c r="A34" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
     </row>
     <row r="35" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
@@ -1542,17 +1511,17 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
+      <c r="A36" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="G36" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="46"/>
+      <c r="G36" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="88"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -1560,39 +1529,43 @@
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
+      <c r="A39" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
       <c r="D39" s="1"/>
       <c r="G39" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="90"/>
+        <v>31</v>
+      </c>
+      <c r="H39" s="92" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
+      <c r="A40" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
       <c r="D40" s="1"/>
       <c r="G40" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="91"/>
+        <v>11</v>
+      </c>
+      <c r="H40" s="93" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2436,38 +2409,12 @@
     <protectedRange sqref="B19:B20" name="Rango1_5_1_1"/>
     <protectedRange sqref="C19:C20" name="Rango1_6_1_1"/>
   </protectedRanges>
-  <mergeCells count="50">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:H3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
+  <mergeCells count="48">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H38"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G24:H24"/>
@@ -2480,13 +2427,37 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:H3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
